--- a/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-1,18</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37,34%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,67</t>
+          <t>-4,14; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,73</t>
+          <t>-2,62; 6,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 9,21</t>
+          <t>1,14; 9,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,92</t>
+          <t>-3,26; 5,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 37,59</t>
+          <t>-5,53; 2,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 43,61</t>
+          <t>-5,5; 2,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 70,75</t>
+          <t>-22,82; 37,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 16,66</t>
+          <t>-12,47; 39,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 74,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-22,62; 52,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-24,8; 16,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-25,28; 17,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 4,02</t>
+          <t>-6,46; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,02</t>
+          <t>-5,88; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,46</t>
+          <t>-3,25; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 11,85</t>
+          <t>-2,35; 6,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 30,05</t>
+          <t>-2,43; 12,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 32,08</t>
+          <t>-5,42; 7,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 52,91</t>
+          <t>-32,21; 34,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 113,76</t>
+          <t>-25,63; 28,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 49,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 81,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 120,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,65; 66,07</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>75,72%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-29,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-20,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 14,13</t>
+          <t>-0,56; 15,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 3,47</t>
+          <t>-21,08; 1,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 8,19</t>
+          <t>-13,91; 8,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-12,64; 5,78</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,61; 263,37</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 15,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 60,58</t>
+          <t>-6,8; 281,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-56,64; 8,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-49,97; 69,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-67,06; 70,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,25</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,33</t>
+          <t>-2,5; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,2</t>
+          <t>-3,4; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,28</t>
+          <t>0,33; 6,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,16</t>
+          <t>-1,98; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 24,98</t>
+          <t>-3,4; 4,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 18,13</t>
+          <t>-4,38; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 44,87</t>
+          <t>-14,86; 31,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 27,31</t>
+          <t>-15,45; 17,74</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 47,36</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 39,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 26,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,49; 22,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>37,34%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-5,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5562524096239418</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.066802488009575</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.812843548548141</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7159720256305152</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.176629301363272</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.138430574497046</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0364991886609704</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1122435860159014</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3852876656195007</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.05454383278612519</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.06209952453850059</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.0593892308868508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 4,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 6,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 9,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 5,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 2,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 2,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-22,82; 37,95</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 39,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 74,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 52,19</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-24,8; 16,24</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-25,28; 17,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.828017716788802</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.703829926894425</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.273953569820375</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.313395189657441</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.529137511517074</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.460758885300443</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2127624039114168</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1263462331538386</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.06633726788391947</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2269293344696086</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2479929365597258</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2542094493956756</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.252627754865594</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.330114590142929</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.748655373338648</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.504181076458947</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.730677638799541</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.882931596405289</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4196656777099753</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3992946667193549</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7700474466808612</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5070297033128652</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1623514693909053</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1710919216771183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>21,03%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>35,87%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 4,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 4,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 6,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 6,73</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 12,48</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 7,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-32,21; 34,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 28,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 49,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 81,58</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 120,65</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 66,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.05506553633804</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.8552289818583275</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.10094842309434</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.304733432207132</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.887025727654409</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6712575867333009</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.0644895986419667</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.04414383490554057</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.141610963175128</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2183453923324153</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3587239840824331</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.04530364002206437</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>75,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-29,58%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-20,38%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.739663469642541</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.901106156039496</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.150591035960745</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.327494841689719</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.425440931225647</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-5.826082005098425</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.339297218323092</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2944196218828751</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1720229522068223</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1858370990215437</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1615783375287519</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3348983918786236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 15,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,08; 1,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 8,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 5,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 281,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-56,64; 8,92</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-49,97; 69,8</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-67,06; 70,74</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.846316826989652</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.116361630931586</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.246960792197688</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.892566457876294</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.48453842701086</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.336175828218066</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3014265820093562</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2524795385476821</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5028325584503095</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8235893219307314</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.206527257487616</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6202184592626291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-0,86%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>22,56%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,12%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-3,03%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.624357313152575</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.846825074832828</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3861496838539841</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.045602388068003</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.7979076067768426</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2694397961775862</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.02024996576931105</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1570432682164205</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 4,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 3,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 6,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 4,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 4,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 3,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; 31,5</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 17,74</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 47,36</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 39,45</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 26,71</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-21,49; 22,24</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5565961345747752</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.41807218667072</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.80311003810745</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.77516983653226</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.05597828713599357</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5421552913313943</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4845092841773529</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6589570363087562</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.06340468868738</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.84293791952477</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.885860967307895</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.480598974490478</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>3.227827227736571</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1373264146228363</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7250924864589408</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.7679018708249256</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.6468256046634785</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2874696361833712</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.664737717801816</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.063140443136382</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.25245542499647</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.6299165078597652</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04352911715764637</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0142991994428702</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.236776461658537</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.08805144191505018</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.01427952199220999</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.03478915578366729</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.53511545481085</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.762528027006498</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4300714384804266</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.921852646638407</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.395559092607869</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.414116863885927</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1530467831289724</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1685331724828182</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.02346336968353511</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1402516980283711</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1744673962834653</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2169836919452909</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.135346895892181</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.942302979090994</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.729163606970216</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.262434416622477</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.239387303888492</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>3.317147433214064</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3241016339812662</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.166765369245273</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4769861515409287</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4034086284005475</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2670674346755532</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2125865877969315</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
